--- a/display_detection/Data_processing/scales_CS_Series_CS200.xlsx
+++ b/display_detection/Data_processing/scales_CS_Series_CS200.xlsx
@@ -1,22 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20406"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20412"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wienbruch\venv311\Detection_system_06_02_24\Data_processing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wienbruch\camera_detection_system\display_detection\Data_processing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DE153F3-2A4E-4783-B294-D3294D55BEC6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{581711EC-DDC5-4A65-8B88-44274E21399F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10380" xr2:uid="{860D2691-53C4-4380-859B-F1048DDEB91E}"/>
   </bookViews>
   <sheets>
-    <sheet name="22.02.2024" sheetId="4" r:id="rId1"/>
-    <sheet name="14.02.2024" sheetId="3" r:id="rId2"/>
-    <sheet name="12.02.2024" sheetId="2" r:id="rId3"/>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId4"/>
+    <sheet name="22.07.2024" sheetId="6" r:id="rId1"/>
+    <sheet name="03.04.2024" sheetId="5" r:id="rId2"/>
+    <sheet name="22.02.2024" sheetId="4" r:id="rId3"/>
+    <sheet name="14.02.2024" sheetId="3" r:id="rId4"/>
+    <sheet name="12.02.2024" sheetId="2" r:id="rId5"/>
+    <sheet name="Tabelle1" sheetId="1" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="12">
   <si>
     <t>Measuring value1 and time</t>
   </si>
@@ -121,6 +123,992 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Weight measurement</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'22.07.2024'!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'22.07.2024'!$B$2:$ZZ$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="701"/>
+                <c:pt idx="0" formatCode="h:mm:ss">
+                  <c:v>0.40421296296296294</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'22.07.2024'!$B$3:$ZZ$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="701"/>
+                <c:pt idx="0">
+                  <c:v>11.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-17AC-4DE4-951A-D76847387AD2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="470708031"/>
+        <c:axId val="475140527"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="470708031"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="h:mm:ss" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="475140527"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="475140527"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Gram [g]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="470708031"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Weight measurement</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'03.04.2024'!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'03.04.2024'!$B$2:$ZZ$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="701"/>
+                <c:pt idx="0" formatCode="h:mm:ss">
+                  <c:v>0.36458333333333331</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="h:mm:ss">
+                  <c:v>0.36526620370370372</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="h:mm:ss">
+                  <c:v>0.3661921296296296</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="h:mm:ss">
+                  <c:v>0.36672453703703706</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="h:mm:ss">
+                  <c:v>0.36729166666666663</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="h:mm:ss">
+                  <c:v>0.36776620370370372</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="h:mm:ss">
+                  <c:v>0.36829861111111112</c:v>
+                </c:pt>
+                <c:pt idx="14" formatCode="h:mm:ss">
+                  <c:v>0.36879629629629629</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="h:mm:ss">
+                  <c:v>0.3694675925925926</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="h:mm:ss">
+                  <c:v>0.37000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="20" formatCode="h:mm:ss">
+                  <c:v>0.37059027777777781</c:v>
+                </c:pt>
+                <c:pt idx="22" formatCode="h:mm:ss">
+                  <c:v>0.37119212962962966</c:v>
+                </c:pt>
+                <c:pt idx="24" formatCode="h:mm:ss">
+                  <c:v>0.37166666666666665</c:v>
+                </c:pt>
+                <c:pt idx="26" formatCode="h:mm:ss">
+                  <c:v>0.3722569444444444</c:v>
+                </c:pt>
+                <c:pt idx="28" formatCode="h:mm:ss">
+                  <c:v>0.37284722222222227</c:v>
+                </c:pt>
+                <c:pt idx="30" formatCode="h:mm:ss">
+                  <c:v>0.37339120370370371</c:v>
+                </c:pt>
+                <c:pt idx="32" formatCode="h:mm:ss">
+                  <c:v>0.37391203703703701</c:v>
+                </c:pt>
+                <c:pt idx="34" formatCode="h:mm:ss">
+                  <c:v>0.3744791666666667</c:v>
+                </c:pt>
+                <c:pt idx="36" formatCode="h:mm:ss">
+                  <c:v>0.37508101851851849</c:v>
+                </c:pt>
+                <c:pt idx="38" formatCode="h:mm:ss">
+                  <c:v>0.3755324074074074</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'03.04.2024'!$B$3:$ZZ$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="701"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>93.2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>148.69999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>88.6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>82.3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>29.1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>39.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>68.900000000000006</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>80.2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>52.7</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>64.2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>103.3</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>19.3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>41.9</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>53.2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>24.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AE4F-4592-9F26-2E334664098C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1501178240"/>
+        <c:axId val="1505106624"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1501178240"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="h:mm:ss" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1505106624"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1505106624"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Gram [g]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1501178240"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
@@ -628,7 +1616,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
@@ -1088,7 +2076,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
@@ -1764,6 +2752,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -3312,7 +4380,1121 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>586740</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>403860</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagramm 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{318BAFAC-B40E-4100-9B1F-38FDEDF138C8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>586740</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>403860</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagramm 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE30C5AC-7327-4A47-BCCB-5841AF40FE84}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -3353,7 +5535,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -3394,7 +5576,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -3731,10 +5913,1689 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7AE49D7-66E5-4E1D-86F4-BDF32C329360}">
+  <dimension ref="A1:B17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B2" s="1">
+        <v>0.40421296296296294</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B3">
+        <v>11.3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2">
+        <v>45495</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.40421296296296294</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>11.3</v>
+      </c>
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14">
+        <v>0.86040570000000005</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15">
+        <v>0.76263510000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16">
+        <v>0.83463805999999996</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>3</v>
+      </c>
+      <c r="B17">
+        <v>0.93420460000000005</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94FEFFF2-90DB-45EF-A38A-FF91A3E4A846}">
+  <dimension ref="A1:AN18"/>
+  <sheetViews>
+    <sheetView topLeftCell="AC1" workbookViewId="0">
+      <selection activeCell="AO1" sqref="AO1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P1" t="s">
+        <v>0</v>
+      </c>
+      <c r="R1" t="s">
+        <v>0</v>
+      </c>
+      <c r="T1" t="s">
+        <v>0</v>
+      </c>
+      <c r="V1" t="s">
+        <v>0</v>
+      </c>
+      <c r="X1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="B2" s="1">
+        <v>0.36458333333333331</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.36526620370370372</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0.3661921296296296</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0.36672453703703706</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0.36729166666666663</v>
+      </c>
+      <c r="L2" s="1">
+        <v>0.36776620370370372</v>
+      </c>
+      <c r="N2" s="1">
+        <v>0.36829861111111112</v>
+      </c>
+      <c r="P2" s="1">
+        <v>0.36879629629629629</v>
+      </c>
+      <c r="R2" s="1">
+        <v>0.3694675925925926</v>
+      </c>
+      <c r="T2" s="1">
+        <v>0.37000000000000005</v>
+      </c>
+      <c r="V2" s="1">
+        <v>0.37059027777777781</v>
+      </c>
+      <c r="X2" s="1">
+        <v>0.37119212962962966</v>
+      </c>
+      <c r="Z2" s="1">
+        <v>0.37166666666666665</v>
+      </c>
+      <c r="AB2" s="1">
+        <v>0.3722569444444444</v>
+      </c>
+      <c r="AD2" s="1">
+        <v>0.37284722222222227</v>
+      </c>
+      <c r="AF2" s="1">
+        <v>0.37339120370370371</v>
+      </c>
+      <c r="AH2" s="1">
+        <v>0.37391203703703701</v>
+      </c>
+      <c r="AJ2" s="1">
+        <v>0.3744791666666667</v>
+      </c>
+      <c r="AL2" s="1">
+        <v>0.37508101851851849</v>
+      </c>
+      <c r="AN2" s="1">
+        <v>0.3755324074074074</v>
+      </c>
+    </row>
+    <row r="3" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>11.3</v>
+      </c>
+      <c r="F3">
+        <v>93.2</v>
+      </c>
+      <c r="H3">
+        <v>148.69999999999999</v>
+      </c>
+      <c r="J3">
+        <v>88.6</v>
+      </c>
+      <c r="L3">
+        <v>6.5</v>
+      </c>
+      <c r="N3">
+        <v>82.3</v>
+      </c>
+      <c r="P3">
+        <v>29.1</v>
+      </c>
+      <c r="R3">
+        <v>39.799999999999997</v>
+      </c>
+      <c r="T3">
+        <v>68.900000000000006</v>
+      </c>
+      <c r="V3">
+        <v>80.2</v>
+      </c>
+      <c r="X3">
+        <v>52.7</v>
+      </c>
+      <c r="Z3">
+        <v>64.2</v>
+      </c>
+      <c r="AB3">
+        <v>92</v>
+      </c>
+      <c r="AD3">
+        <v>121</v>
+      </c>
+      <c r="AF3">
+        <v>103.3</v>
+      </c>
+      <c r="AH3">
+        <v>19.3</v>
+      </c>
+      <c r="AJ3">
+        <v>41.9</v>
+      </c>
+      <c r="AL3">
+        <v>53.2</v>
+      </c>
+      <c r="AN3">
+        <v>24.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2">
+        <v>45385</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2">
+        <v>45385</v>
+      </c>
+      <c r="E5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" s="2">
+        <v>45385</v>
+      </c>
+      <c r="G5" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" s="2">
+        <v>45385</v>
+      </c>
+      <c r="I5" t="s">
+        <v>1</v>
+      </c>
+      <c r="J5" s="2">
+        <v>45385</v>
+      </c>
+      <c r="K5" t="s">
+        <v>1</v>
+      </c>
+      <c r="L5" s="2">
+        <v>45385</v>
+      </c>
+      <c r="M5" t="s">
+        <v>1</v>
+      </c>
+      <c r="N5" s="2">
+        <v>45385</v>
+      </c>
+      <c r="O5" t="s">
+        <v>1</v>
+      </c>
+      <c r="P5">
+        <v>0.2024</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>1</v>
+      </c>
+      <c r="R5" s="2">
+        <v>45385</v>
+      </c>
+      <c r="S5" t="s">
+        <v>1</v>
+      </c>
+      <c r="T5" s="2">
+        <v>45385</v>
+      </c>
+      <c r="U5" t="s">
+        <v>1</v>
+      </c>
+      <c r="V5" s="2">
+        <v>45385</v>
+      </c>
+      <c r="W5" t="s">
+        <v>1</v>
+      </c>
+      <c r="X5" s="2">
+        <v>45385</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z5" s="2">
+        <v>45385</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB5" s="2">
+        <v>45385</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD5" s="2">
+        <v>45385</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF5" s="2">
+        <v>45385</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH5" s="2">
+        <v>45385</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ5" s="2">
+        <v>45385</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL5" s="2">
+        <v>45385</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN5" s="2">
+        <v>45385</v>
+      </c>
+    </row>
+    <row r="6" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.36458333333333331</v>
+      </c>
+      <c r="C6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.36526620370370372</v>
+      </c>
+      <c r="E6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.3661921296296296</v>
+      </c>
+      <c r="G6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0.36672453703703706</v>
+      </c>
+      <c r="I6" t="s">
+        <v>2</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0.36729166666666663</v>
+      </c>
+      <c r="K6" t="s">
+        <v>2</v>
+      </c>
+      <c r="L6" s="1">
+        <v>0.36776620370370372</v>
+      </c>
+      <c r="M6" t="s">
+        <v>2</v>
+      </c>
+      <c r="N6" s="1">
+        <v>0.36829861111111112</v>
+      </c>
+      <c r="O6" t="s">
+        <v>2</v>
+      </c>
+      <c r="P6" s="1">
+        <v>0.36879629629629629</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>2</v>
+      </c>
+      <c r="R6" s="1">
+        <v>0.3694675925925926</v>
+      </c>
+      <c r="S6" t="s">
+        <v>2</v>
+      </c>
+      <c r="T6" s="1">
+        <v>0.37000000000000005</v>
+      </c>
+      <c r="U6" t="s">
+        <v>2</v>
+      </c>
+      <c r="V6" s="1">
+        <v>0.37059027777777781</v>
+      </c>
+      <c r="W6" t="s">
+        <v>2</v>
+      </c>
+      <c r="X6" s="1">
+        <v>0.37119212962962966</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z6" s="1">
+        <v>0.37166666666666665</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB6" s="1">
+        <v>0.3722569444444444</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD6" s="1">
+        <v>0.37284722222222227</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF6" s="1">
+        <v>0.37339120370370371</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH6" s="1">
+        <v>0.37391203703703701</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ6" s="1">
+        <v>0.3744791666666667</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL6" s="1">
+        <v>0.37508101851851849</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>2</v>
+      </c>
+      <c r="AN6" s="1">
+        <v>0.3755324074074074</v>
+      </c>
+    </row>
+    <row r="7" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" t="s">
+        <v>3</v>
+      </c>
+      <c r="I7" t="s">
+        <v>3</v>
+      </c>
+      <c r="K7" t="s">
+        <v>3</v>
+      </c>
+      <c r="M7" t="s">
+        <v>3</v>
+      </c>
+      <c r="O7" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>3</v>
+      </c>
+      <c r="S7" t="s">
+        <v>3</v>
+      </c>
+      <c r="U7" t="s">
+        <v>3</v>
+      </c>
+      <c r="W7" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>8</v>
+      </c>
+      <c r="E8">
+        <v>8</v>
+      </c>
+      <c r="G8">
+        <v>8</v>
+      </c>
+      <c r="I8">
+        <v>8</v>
+      </c>
+      <c r="K8">
+        <v>8</v>
+      </c>
+      <c r="M8">
+        <v>8</v>
+      </c>
+      <c r="O8">
+        <v>8</v>
+      </c>
+      <c r="Q8">
+        <v>8</v>
+      </c>
+      <c r="S8">
+        <v>8</v>
+      </c>
+      <c r="U8">
+        <v>8</v>
+      </c>
+      <c r="W8">
+        <v>8</v>
+      </c>
+      <c r="Y8">
+        <v>8</v>
+      </c>
+      <c r="AA8">
+        <v>8</v>
+      </c>
+      <c r="AC8">
+        <v>8</v>
+      </c>
+      <c r="AE8">
+        <v>8</v>
+      </c>
+      <c r="AG8">
+        <v>8</v>
+      </c>
+      <c r="AI8">
+        <v>8</v>
+      </c>
+      <c r="AK8">
+        <v>8</v>
+      </c>
+      <c r="AM8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>5</v>
+      </c>
+      <c r="C9">
+        <v>5</v>
+      </c>
+      <c r="E9">
+        <v>5</v>
+      </c>
+      <c r="G9">
+        <v>5</v>
+      </c>
+      <c r="I9">
+        <v>5</v>
+      </c>
+      <c r="K9">
+        <v>5</v>
+      </c>
+      <c r="M9">
+        <v>5</v>
+      </c>
+      <c r="O9">
+        <v>5</v>
+      </c>
+      <c r="Q9">
+        <v>5</v>
+      </c>
+      <c r="S9">
+        <v>5</v>
+      </c>
+      <c r="U9">
+        <v>5</v>
+      </c>
+      <c r="W9">
+        <v>5</v>
+      </c>
+      <c r="Y9">
+        <v>5</v>
+      </c>
+      <c r="AA9">
+        <v>5</v>
+      </c>
+      <c r="AC9">
+        <v>5</v>
+      </c>
+      <c r="AE9">
+        <v>5</v>
+      </c>
+      <c r="AG9">
+        <v>5</v>
+      </c>
+      <c r="AI9">
+        <v>5</v>
+      </c>
+      <c r="AK9">
+        <v>5</v>
+      </c>
+      <c r="AM9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" t="s">
+        <v>4</v>
+      </c>
+      <c r="G10" t="s">
+        <v>4</v>
+      </c>
+      <c r="I10" t="s">
+        <v>4</v>
+      </c>
+      <c r="K10" t="s">
+        <v>4</v>
+      </c>
+      <c r="M10" t="s">
+        <v>4</v>
+      </c>
+      <c r="O10" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>4</v>
+      </c>
+      <c r="S10" t="s">
+        <v>4</v>
+      </c>
+      <c r="U10" t="s">
+        <v>4</v>
+      </c>
+      <c r="W10" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>4</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>4</v>
+      </c>
+      <c r="AK10" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>0</v>
+      </c>
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11">
+        <v>11.3</v>
+      </c>
+      <c r="D11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11">
+        <v>93.2</v>
+      </c>
+      <c r="F11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G11">
+        <v>148.69999999999999</v>
+      </c>
+      <c r="H11" t="s">
+        <v>5</v>
+      </c>
+      <c r="I11">
+        <v>88.6</v>
+      </c>
+      <c r="J11" t="s">
+        <v>5</v>
+      </c>
+      <c r="K11">
+        <v>6.5</v>
+      </c>
+      <c r="L11" t="s">
+        <v>5</v>
+      </c>
+      <c r="M11">
+        <v>82.3</v>
+      </c>
+      <c r="N11" t="s">
+        <v>5</v>
+      </c>
+      <c r="O11">
+        <v>29.1</v>
+      </c>
+      <c r="P11" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q11">
+        <v>39.799999999999997</v>
+      </c>
+      <c r="R11" t="s">
+        <v>5</v>
+      </c>
+      <c r="S11">
+        <v>68.900000000000006</v>
+      </c>
+      <c r="T11" t="s">
+        <v>5</v>
+      </c>
+      <c r="U11">
+        <v>80.2</v>
+      </c>
+      <c r="V11" t="s">
+        <v>5</v>
+      </c>
+      <c r="W11">
+        <v>52.7</v>
+      </c>
+      <c r="X11" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y11">
+        <v>64.2</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>5</v>
+      </c>
+      <c r="AA11">
+        <v>92</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC11">
+        <v>121</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE11">
+        <v>103.3</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>5</v>
+      </c>
+      <c r="AG11">
+        <v>19.3</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>5</v>
+      </c>
+      <c r="AI11">
+        <v>41.9</v>
+      </c>
+      <c r="AJ11" t="s">
+        <v>5</v>
+      </c>
+      <c r="AK11">
+        <v>53.2</v>
+      </c>
+      <c r="AL11" t="s">
+        <v>5</v>
+      </c>
+      <c r="AM11">
+        <v>24.1</v>
+      </c>
+      <c r="AN11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H12" t="s">
+        <v>7</v>
+      </c>
+      <c r="I12" t="s">
+        <v>6</v>
+      </c>
+      <c r="J12" t="s">
+        <v>7</v>
+      </c>
+      <c r="K12" t="s">
+        <v>6</v>
+      </c>
+      <c r="L12" t="s">
+        <v>7</v>
+      </c>
+      <c r="M12" t="s">
+        <v>6</v>
+      </c>
+      <c r="N12" t="s">
+        <v>7</v>
+      </c>
+      <c r="O12" t="s">
+        <v>6</v>
+      </c>
+      <c r="P12" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>6</v>
+      </c>
+      <c r="R12" t="s">
+        <v>7</v>
+      </c>
+      <c r="S12" t="s">
+        <v>6</v>
+      </c>
+      <c r="T12" t="s">
+        <v>7</v>
+      </c>
+      <c r="U12" t="s">
+        <v>6</v>
+      </c>
+      <c r="V12" t="s">
+        <v>7</v>
+      </c>
+      <c r="W12" t="s">
+        <v>6</v>
+      </c>
+      <c r="X12" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>7</v>
+      </c>
+      <c r="AG12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>7</v>
+      </c>
+      <c r="AI12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AJ12" t="s">
+        <v>7</v>
+      </c>
+      <c r="AK12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AL12" t="s">
+        <v>7</v>
+      </c>
+      <c r="AM12" t="s">
+        <v>6</v>
+      </c>
+      <c r="AN12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I13" t="s">
+        <v>8</v>
+      </c>
+      <c r="J13" t="s">
+        <v>9</v>
+      </c>
+      <c r="K13" t="s">
+        <v>8</v>
+      </c>
+      <c r="L13" t="s">
+        <v>9</v>
+      </c>
+      <c r="M13" t="s">
+        <v>8</v>
+      </c>
+      <c r="N13" t="s">
+        <v>9</v>
+      </c>
+      <c r="O13" t="s">
+        <v>8</v>
+      </c>
+      <c r="P13" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>8</v>
+      </c>
+      <c r="R13" t="s">
+        <v>9</v>
+      </c>
+      <c r="S13" t="s">
+        <v>8</v>
+      </c>
+      <c r="T13" t="s">
+        <v>9</v>
+      </c>
+      <c r="U13" t="s">
+        <v>8</v>
+      </c>
+      <c r="V13" t="s">
+        <v>9</v>
+      </c>
+      <c r="W13" t="s">
+        <v>8</v>
+      </c>
+      <c r="X13" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>8</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>9</v>
+      </c>
+      <c r="AG13" t="s">
+        <v>8</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>9</v>
+      </c>
+      <c r="AI13" t="s">
+        <v>8</v>
+      </c>
+      <c r="AJ13" t="s">
+        <v>9</v>
+      </c>
+      <c r="AK13" t="s">
+        <v>8</v>
+      </c>
+      <c r="AL13" t="s">
+        <v>9</v>
+      </c>
+      <c r="AM13" t="s">
+        <v>8</v>
+      </c>
+      <c r="AN13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>0</v>
+      </c>
+      <c r="B14">
+        <v>0.94612472999999997</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>0.86040570000000005</v>
+      </c>
+      <c r="E14">
+        <v>9</v>
+      </c>
+      <c r="F14">
+        <v>0.93865144</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>0.87091494000000003</v>
+      </c>
+      <c r="I14">
+        <v>8</v>
+      </c>
+      <c r="J14">
+        <v>0.95930004000000002</v>
+      </c>
+      <c r="K14">
+        <v>6</v>
+      </c>
+      <c r="L14">
+        <v>0.93173910000000004</v>
+      </c>
+      <c r="M14">
+        <v>8</v>
+      </c>
+      <c r="N14">
+        <v>0.96032969999999995</v>
+      </c>
+      <c r="O14">
+        <v>2</v>
+      </c>
+      <c r="P14">
+        <v>0.94093335</v>
+      </c>
+      <c r="Q14">
+        <v>3</v>
+      </c>
+      <c r="R14">
+        <v>0.93152500000000005</v>
+      </c>
+      <c r="S14">
+        <v>6</v>
+      </c>
+      <c r="T14">
+        <v>0.96898185999999997</v>
+      </c>
+      <c r="U14">
+        <v>8</v>
+      </c>
+      <c r="V14">
+        <v>0.94887507000000004</v>
+      </c>
+      <c r="W14">
+        <v>5</v>
+      </c>
+      <c r="X14">
+        <v>0.91046780000000005</v>
+      </c>
+      <c r="Y14">
+        <v>6</v>
+      </c>
+      <c r="Z14">
+        <v>0.90259509999999998</v>
+      </c>
+      <c r="AA14">
+        <v>9</v>
+      </c>
+      <c r="AB14">
+        <v>0.92280050000000002</v>
+      </c>
+      <c r="AC14">
+        <v>1</v>
+      </c>
+      <c r="AD14">
+        <v>0.86036336000000002</v>
+      </c>
+      <c r="AE14">
+        <v>1</v>
+      </c>
+      <c r="AF14">
+        <v>0.87525019999999998</v>
+      </c>
+      <c r="AG14">
+        <v>1</v>
+      </c>
+      <c r="AH14">
+        <v>0.8388738</v>
+      </c>
+      <c r="AI14">
+        <v>4</v>
+      </c>
+      <c r="AJ14">
+        <v>0.9335386</v>
+      </c>
+      <c r="AK14">
+        <v>5</v>
+      </c>
+      <c r="AL14">
+        <v>0.91432119999999995</v>
+      </c>
+      <c r="AM14">
+        <v>2</v>
+      </c>
+      <c r="AN14">
+        <v>0.94313203999999995</v>
+      </c>
+    </row>
+    <row r="15" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15">
+        <v>0.86355630000000005</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>0.76263510000000001</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>0.94850694999999996</v>
+      </c>
+      <c r="G15">
+        <v>4</v>
+      </c>
+      <c r="H15">
+        <v>0.93706566000000002</v>
+      </c>
+      <c r="I15">
+        <v>8</v>
+      </c>
+      <c r="J15">
+        <v>0.97577035000000001</v>
+      </c>
+      <c r="K15" t="s">
+        <v>10</v>
+      </c>
+      <c r="L15">
+        <v>0.73536634000000001</v>
+      </c>
+      <c r="M15">
+        <v>2</v>
+      </c>
+      <c r="N15">
+        <v>0.94355834000000005</v>
+      </c>
+      <c r="O15">
+        <v>9</v>
+      </c>
+      <c r="P15">
+        <v>0.89801156999999998</v>
+      </c>
+      <c r="Q15">
+        <v>9</v>
+      </c>
+      <c r="R15">
+        <v>0.92395174999999996</v>
+      </c>
+      <c r="S15">
+        <v>8</v>
+      </c>
+      <c r="T15">
+        <v>0.96481399999999995</v>
+      </c>
+      <c r="U15">
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <v>0.94759409999999999</v>
+      </c>
+      <c r="W15">
+        <v>2</v>
+      </c>
+      <c r="X15">
+        <v>0.92457604000000004</v>
+      </c>
+      <c r="Y15">
+        <v>4</v>
+      </c>
+      <c r="Z15">
+        <v>0.89884609999999998</v>
+      </c>
+      <c r="AA15">
+        <v>2</v>
+      </c>
+      <c r="AB15">
+        <v>0.80885874999999996</v>
+      </c>
+      <c r="AC15">
+        <v>2</v>
+      </c>
+      <c r="AD15">
+        <v>0.93673019999999996</v>
+      </c>
+      <c r="AE15">
+        <v>0</v>
+      </c>
+      <c r="AF15">
+        <v>0.96005750000000001</v>
+      </c>
+      <c r="AG15">
+        <v>9</v>
+      </c>
+      <c r="AH15">
+        <v>0.92916125000000005</v>
+      </c>
+      <c r="AI15">
+        <v>1</v>
+      </c>
+      <c r="AJ15">
+        <v>0.83749264000000001</v>
+      </c>
+      <c r="AK15">
+        <v>3</v>
+      </c>
+      <c r="AL15">
+        <v>0.92170019999999997</v>
+      </c>
+      <c r="AM15">
+        <v>4</v>
+      </c>
+      <c r="AN15">
+        <v>0.9024489</v>
+      </c>
+    </row>
+    <row r="16" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>0</v>
+      </c>
+      <c r="B16">
+        <v>0.94793139999999998</v>
+      </c>
+      <c r="C16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16">
+        <v>0.83463805999999996</v>
+      </c>
+      <c r="E16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16">
+        <v>0.85274075999999999</v>
+      </c>
+      <c r="G16">
+        <v>8</v>
+      </c>
+      <c r="H16">
+        <v>0.96824600000000005</v>
+      </c>
+      <c r="I16" t="s">
+        <v>10</v>
+      </c>
+      <c r="J16">
+        <v>0.80357694999999996</v>
+      </c>
+      <c r="K16">
+        <v>5</v>
+      </c>
+      <c r="L16">
+        <v>0.85269684000000001</v>
+      </c>
+      <c r="M16" t="s">
+        <v>10</v>
+      </c>
+      <c r="N16">
+        <v>0.79992870000000005</v>
+      </c>
+      <c r="O16" t="s">
+        <v>10</v>
+      </c>
+      <c r="P16">
+        <v>0.82116663000000001</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>10</v>
+      </c>
+      <c r="R16">
+        <v>0.80861114999999995</v>
+      </c>
+      <c r="S16" t="s">
+        <v>10</v>
+      </c>
+      <c r="T16">
+        <v>0.65434159999999997</v>
+      </c>
+      <c r="U16" t="s">
+        <v>10</v>
+      </c>
+      <c r="V16">
+        <v>0.78355209999999997</v>
+      </c>
+      <c r="W16" t="s">
+        <v>10</v>
+      </c>
+      <c r="X16">
+        <v>0.71618163999999995</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z16">
+        <v>0.76034235999999999</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB16">
+        <v>0.84276085999999995</v>
+      </c>
+      <c r="AC16">
+        <v>1</v>
+      </c>
+      <c r="AD16">
+        <v>0.74674779999999996</v>
+      </c>
+      <c r="AE16">
+        <v>3</v>
+      </c>
+      <c r="AF16">
+        <v>0.93898340000000002</v>
+      </c>
+      <c r="AG16" t="s">
+        <v>10</v>
+      </c>
+      <c r="AH16">
+        <v>0.75143594000000002</v>
+      </c>
+      <c r="AI16" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ16">
+        <v>0.82793309999999998</v>
+      </c>
+      <c r="AK16" t="s">
+        <v>10</v>
+      </c>
+      <c r="AL16">
+        <v>0.81121860000000001</v>
+      </c>
+      <c r="AM16" t="s">
+        <v>10</v>
+      </c>
+      <c r="AN16">
+        <v>0.85165000000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="3:40" x14ac:dyDescent="0.3">
+      <c r="C17">
+        <v>3</v>
+      </c>
+      <c r="D17">
+        <v>0.93420460000000005</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.94436335999999999</v>
+      </c>
+      <c r="G17" t="s">
+        <v>10</v>
+      </c>
+      <c r="H17">
+        <v>0.76610327</v>
+      </c>
+      <c r="I17">
+        <v>6</v>
+      </c>
+      <c r="J17">
+        <v>0.95365299999999997</v>
+      </c>
+      <c r="M17">
+        <v>3</v>
+      </c>
+      <c r="N17">
+        <v>0.88762105000000002</v>
+      </c>
+      <c r="O17">
+        <v>1</v>
+      </c>
+      <c r="P17">
+        <v>0.85546946999999995</v>
+      </c>
+      <c r="Q17">
+        <v>8</v>
+      </c>
+      <c r="R17">
+        <v>0.96641135</v>
+      </c>
+      <c r="S17">
+        <v>9</v>
+      </c>
+      <c r="T17">
+        <v>0.91885525000000001</v>
+      </c>
+      <c r="U17">
+        <v>2</v>
+      </c>
+      <c r="V17">
+        <v>0.93955624000000004</v>
+      </c>
+      <c r="W17">
+        <v>7</v>
+      </c>
+      <c r="X17">
+        <v>0.81113183</v>
+      </c>
+      <c r="Y17">
+        <v>2</v>
+      </c>
+      <c r="Z17">
+        <v>0.91790510000000003</v>
+      </c>
+      <c r="AA17">
+        <v>0</v>
+      </c>
+      <c r="AB17">
+        <v>0.95252460000000005</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD17">
+        <v>0.86043539999999996</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF17">
+        <v>0.72711510000000001</v>
+      </c>
+      <c r="AG17">
+        <v>3</v>
+      </c>
+      <c r="AH17">
+        <v>0.91217990000000004</v>
+      </c>
+      <c r="AI17">
+        <v>9</v>
+      </c>
+      <c r="AJ17">
+        <v>0.92478610000000006</v>
+      </c>
+      <c r="AK17">
+        <v>2</v>
+      </c>
+      <c r="AL17">
+        <v>0.92142813999999995</v>
+      </c>
+      <c r="AM17">
+        <v>1</v>
+      </c>
+      <c r="AN17">
+        <v>0.80414350000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="3:40" x14ac:dyDescent="0.3">
+      <c r="G18">
+        <v>7</v>
+      </c>
+      <c r="H18">
+        <v>0.86246670000000003</v>
+      </c>
+      <c r="AC18">
+        <v>0</v>
+      </c>
+      <c r="AD18">
+        <v>0.96155416999999999</v>
+      </c>
+      <c r="AE18">
+        <v>3</v>
+      </c>
+      <c r="AF18">
+        <v>0.92128019999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{676777B0-E9E7-417B-B84C-CA86948FD18B}">
   <dimension ref="A1:Z18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+    <sheetView topLeftCell="O1" workbookViewId="0">
       <selection activeCell="AA1" sqref="AA1"/>
     </sheetView>
   </sheetViews>
@@ -4743,7 +8604,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7FC05C1-9639-43C2-9665-83776802C6DE}">
   <dimension ref="A1:J18"/>
   <sheetViews>
@@ -5168,7 +9029,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94853367-1FEB-406D-804D-7346B0042ED9}">
   <dimension ref="A1:AP18"/>
   <sheetViews>
@@ -6793,7 +10654,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CDA828F-E22B-491A-8054-E5A7A330D5CD}">
   <dimension ref="A1"/>
   <sheetViews>
